--- a/data/Cv_Asymptotique_V0.xlsx
+++ b/data/Cv_Asymptotique_V0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\02 - Etudes\05 - ETS\02 - H25\01 - Cours\MEC8211\04 - Projet\MEC8211_projet\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2d04f23f7faf3ef/Bureau/PROFESSIONAL/CANADA/5_Cours/H25_MEC8211/0_Devoir 1/MEC8211_projet/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BABF8E8-32C6-46A4-B573-AB0C5D00C891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4BABF8E8-32C6-46A4-B573-AB0C5D00C891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{660FAF0F-16D6-40D0-A0EF-3A069C19BB40}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71DE9E3B-8139-49A5-9447-BED9AD2841B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{71DE9E3B-8139-49A5-9447-BED9AD2841B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4847,26 +4847,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDAE1E0-98B5-4FCE-A9B9-8A3F08494FE5}">
   <dimension ref="B1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="34.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="34.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C3">
         <f>0.01</f>
         <v>0.01</v>
@@ -4886,7 +4886,7 @@
         <v>3.0154E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4">
         <f>C3/C4</f>
         <v>1.1111111111111112</v>
@@ -4899,7 +4899,7 @@
         <v>3.0255000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5">
         <f t="shared" ref="B5:B9" si="0">C4/C5</f>
         <v>1.125</v>
@@ -4912,7 +4912,7 @@
         <v>3.0291999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6">
         <f t="shared" si="0"/>
         <v>1.3333333333333333</v>
@@ -4924,7 +4924,7 @@
         <v>3.0431E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7">
         <f t="shared" si="0"/>
         <v>1.2</v>
@@ -4936,9 +4936,9 @@
         <v>3.0488000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f>C7/C8</f>
         <v>1.25</v>
       </c>
       <c r="C8">
@@ -4948,7 +4948,7 @@
         <v>3.0554999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>1.3333333333333333</v>
@@ -4960,7 +4960,7 @@
         <v>3.0553E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>4</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>2.5026000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>9</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>2.5038499999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>2.5051000000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>8</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>9</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>3.0431E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>34</v>
       </c>
@@ -5079,17 +5079,17 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.35">
       <c r="W31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:23" x14ac:dyDescent="0.35">
       <c r="W33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C35">
         <f>0.01</f>
         <v>0.01</v>
@@ -5118,7 +5118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C36">
         <f>0.009</f>
         <v>8.9999999999999993E-3</v>
@@ -5129,7 +5129,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C37">
         <f>0.008</f>
         <v>8.0000000000000002E-3</v>
@@ -5147,7 +5147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C38">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C39">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>2.1625999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C40">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C41">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -5212,17 +5212,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:23" x14ac:dyDescent="0.35">
       <c r="W42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:23" x14ac:dyDescent="0.35">
       <c r="W43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C44">
         <f>0.008</f>
         <v>8.0000000000000002E-3</v>
@@ -5234,7 +5234,7 @@
         <v>2.1507999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C45">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C46">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C47">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C48">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -5290,47 +5290,47 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="23:23" x14ac:dyDescent="0.35">
       <c r="W49" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="23:23" x14ac:dyDescent="0.35">
       <c r="W50" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="23:23" x14ac:dyDescent="0.35">
       <c r="W51" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="23:23" x14ac:dyDescent="0.35">
       <c r="W52" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="23:23" x14ac:dyDescent="0.35">
       <c r="W53" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="23:23" x14ac:dyDescent="0.35">
       <c r="W54" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="23:23" x14ac:dyDescent="0.35">
       <c r="W55" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="23:23" x14ac:dyDescent="0.35">
       <c r="W56" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="23:23" x14ac:dyDescent="0.35">
       <c r="W58" t="s">
         <v>33</v>
       </c>

--- a/data/Cv_Asymptotique_V0.xlsx
+++ b/data/Cv_Asymptotique_V0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -4848,7 +4848,7 @@
   <dimension ref="B1:W58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
